--- a/pred_ohlcv/54/2019-11-01 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 GXC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>582.65</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,7 +460,10 @@
         <v>582.6666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +489,10 @@
         <v>582.75</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1024,6 +1098,9 @@
         <v>584.8833333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,6 +1127,9 @@
         <v>585</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,6 +1156,9 @@
         <v>585.1166666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,6 +1185,9 @@
         <v>585.2333333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1128,6 +1214,9 @@
         <v>585.3166666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,6 +1243,9 @@
         <v>585.4166666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,6 +1272,9 @@
         <v>585.5166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1206,6 +1301,9 @@
         <v>585.6</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1232,6 +1330,9 @@
         <v>585.9333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,6 +1359,9 @@
         <v>586.0833333333334</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,6 +1388,9 @@
         <v>586.2333333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1310,6 +1417,9 @@
         <v>586.3666666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1336,6 +1446,9 @@
         <v>586.5666666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1362,6 +1475,9 @@
         <v>586.75</v>
       </c>
       <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1390,6 +1506,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1442,6 +1564,9 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1494,6 +1622,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1520,550 +1651,7 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>590</v>
-      </c>
-      <c r="C45" t="n">
-        <v>590</v>
-      </c>
-      <c r="D45" t="n">
-        <v>590</v>
-      </c>
-      <c r="E45" t="n">
-        <v>590</v>
-      </c>
-      <c r="F45" t="n">
-        <v>40</v>
-      </c>
-      <c r="G45" t="n">
-        <v>588.3666666666667</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>590</v>
-      </c>
-      <c r="C46" t="n">
-        <v>592</v>
-      </c>
-      <c r="D46" t="n">
-        <v>592</v>
-      </c>
-      <c r="E46" t="n">
-        <v>590</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3701.2111</v>
-      </c>
-      <c r="G46" t="n">
-        <v>588.5833333333334</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>588</v>
-      </c>
-      <c r="C47" t="n">
-        <v>592</v>
-      </c>
-      <c r="D47" t="n">
-        <v>592</v>
-      </c>
-      <c r="E47" t="n">
-        <v>586</v>
-      </c>
-      <c r="F47" t="n">
-        <v>131.7148</v>
-      </c>
-      <c r="G47" t="n">
-        <v>588.7833333333333</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>592</v>
-      </c>
-      <c r="C48" t="n">
-        <v>592</v>
-      </c>
-      <c r="D48" t="n">
-        <v>592</v>
-      </c>
-      <c r="E48" t="n">
-        <v>592</v>
-      </c>
-      <c r="F48" t="n">
-        <v>631</v>
-      </c>
-      <c r="G48" t="n">
-        <v>588.9666666666667</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>592</v>
-      </c>
-      <c r="C49" t="n">
-        <v>592</v>
-      </c>
-      <c r="D49" t="n">
-        <v>592</v>
-      </c>
-      <c r="E49" t="n">
-        <v>592</v>
-      </c>
-      <c r="F49" t="n">
-        <v>581</v>
-      </c>
-      <c r="G49" t="n">
-        <v>589.15</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>592</v>
-      </c>
-      <c r="C50" t="n">
-        <v>592</v>
-      </c>
-      <c r="D50" t="n">
-        <v>592</v>
-      </c>
-      <c r="E50" t="n">
-        <v>592</v>
-      </c>
-      <c r="F50" t="n">
-        <v>433</v>
-      </c>
-      <c r="G50" t="n">
-        <v>589.3333333333334</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>592</v>
-      </c>
-      <c r="C51" t="n">
-        <v>595</v>
-      </c>
-      <c r="D51" t="n">
-        <v>595</v>
-      </c>
-      <c r="E51" t="n">
-        <v>592</v>
-      </c>
-      <c r="F51" t="n">
-        <v>80</v>
-      </c>
-      <c r="G51" t="n">
-        <v>589.5333333333333</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>595</v>
-      </c>
-      <c r="C52" t="n">
-        <v>595</v>
-      </c>
-      <c r="D52" t="n">
-        <v>595</v>
-      </c>
-      <c r="E52" t="n">
-        <v>595</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>589.7333333333333</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>595</v>
-      </c>
-      <c r="C53" t="n">
-        <v>594</v>
-      </c>
-      <c r="D53" t="n">
-        <v>605</v>
-      </c>
-      <c r="E53" t="n">
-        <v>594</v>
-      </c>
-      <c r="F53" t="n">
-        <v>636.7309</v>
-      </c>
-      <c r="G53" t="n">
-        <v>589.9</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>605</v>
-      </c>
-      <c r="C54" t="n">
-        <v>605</v>
-      </c>
-      <c r="D54" t="n">
-        <v>605</v>
-      </c>
-      <c r="E54" t="n">
-        <v>605</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>590.1833333333333</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>605</v>
-      </c>
-      <c r="C55" t="n">
-        <v>605</v>
-      </c>
-      <c r="D55" t="n">
-        <v>605</v>
-      </c>
-      <c r="E55" t="n">
-        <v>605</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>590.4666666666667</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>594</v>
-      </c>
-      <c r="C56" t="n">
-        <v>594</v>
-      </c>
-      <c r="D56" t="n">
-        <v>594</v>
-      </c>
-      <c r="E56" t="n">
-        <v>594</v>
-      </c>
-      <c r="F56" t="n">
-        <v>656.8484999999999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>590.5666666666667</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>595</v>
-      </c>
-      <c r="C57" t="n">
-        <v>595</v>
-      </c>
-      <c r="D57" t="n">
-        <v>595</v>
-      </c>
-      <c r="E57" t="n">
-        <v>595</v>
-      </c>
-      <c r="F57" t="n">
-        <v>148.0554</v>
-      </c>
-      <c r="G57" t="n">
-        <v>590.6666666666666</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>595</v>
-      </c>
-      <c r="C58" t="n">
-        <v>595</v>
-      </c>
-      <c r="D58" t="n">
-        <v>595</v>
-      </c>
-      <c r="E58" t="n">
-        <v>595</v>
-      </c>
-      <c r="F58" t="n">
-        <v>440.3813</v>
-      </c>
-      <c r="G58" t="n">
-        <v>590.7666666666667</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>591</v>
-      </c>
-      <c r="C59" t="n">
-        <v>591</v>
-      </c>
-      <c r="D59" t="n">
-        <v>591</v>
-      </c>
-      <c r="E59" t="n">
-        <v>591</v>
-      </c>
-      <c r="F59" t="n">
-        <v>321.2148</v>
-      </c>
-      <c r="G59" t="n">
-        <v>590.8</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>591</v>
-      </c>
-      <c r="C60" t="n">
-        <v>591</v>
-      </c>
-      <c r="D60" t="n">
-        <v>591</v>
-      </c>
-      <c r="E60" t="n">
-        <v>591</v>
-      </c>
-      <c r="F60" t="n">
-        <v>759.3232</v>
-      </c>
-      <c r="G60" t="n">
-        <v>590.8333333333334</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>591</v>
-      </c>
-      <c r="C61" t="n">
-        <v>591</v>
-      </c>
-      <c r="D61" t="n">
-        <v>591</v>
-      </c>
-      <c r="E61" t="n">
-        <v>591</v>
-      </c>
-      <c r="F61" t="n">
-        <v>38.6187</v>
-      </c>
-      <c r="G61" t="n">
-        <v>590.8666666666667</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>588</v>
-      </c>
-      <c r="C62" t="n">
-        <v>588</v>
-      </c>
-      <c r="D62" t="n">
-        <v>588</v>
-      </c>
-      <c r="E62" t="n">
-        <v>588</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1146.2058</v>
-      </c>
-      <c r="G62" t="n">
-        <v>590.8333333333334</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>588</v>
-      </c>
-      <c r="C63" t="n">
-        <v>588</v>
-      </c>
-      <c r="D63" t="n">
-        <v>588</v>
-      </c>
-      <c r="E63" t="n">
-        <v>588</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1102</v>
-      </c>
-      <c r="G63" t="n">
-        <v>590.8</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>588</v>
-      </c>
-      <c r="C64" t="n">
-        <v>588</v>
-      </c>
-      <c r="D64" t="n">
-        <v>588</v>
-      </c>
-      <c r="E64" t="n">
-        <v>588</v>
-      </c>
-      <c r="F64" t="n">
-        <v>917.29</v>
-      </c>
-      <c r="G64" t="n">
-        <v>590.7666666666667</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>588</v>
-      </c>
-      <c r="C65" t="n">
-        <v>588</v>
-      </c>
-      <c r="D65" t="n">
-        <v>588</v>
-      </c>
-      <c r="E65" t="n">
-        <v>588</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1044</v>
-      </c>
-      <c r="G65" t="n">
-        <v>590.7166666666667</v>
-      </c>
-      <c r="H65" t="n">
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
